--- a/data/evaluation/evaluation_North_Winter_Avocados.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Avocados.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4340.809523809524</v>
+        <v>4324.939958592132</v>
       </c>
       <c r="C3" t="n">
-        <v>60606920.70429115</v>
+        <v>60458183.20429115</v>
       </c>
       <c r="D3" t="n">
-        <v>7785.044682228301</v>
+        <v>7775.486042961633</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.007249136090627</v>
+        <v>-1.002323077896119</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3601.121385183558</v>
+        <v>3621.123058056873</v>
       </c>
       <c r="C4" t="n">
-        <v>39989522.91265153</v>
+        <v>41694853.86813489</v>
       </c>
       <c r="D4" t="n">
-        <v>6323.726979610326</v>
+        <v>6457.155245782378</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3244186371180025</v>
+        <v>-0.3808977330259424</v>
       </c>
     </row>
     <row r="5">
